--- a/Python/results.xlsx
+++ b/Python/results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Cockroach Poker</t>
   </si>
@@ -237,6 +238,102 @@
   </si>
   <si>
     <t>80.01</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Votes</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Game of Life, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Cockroach Poker, Cockroach Sushi, Cryptid, Jenga, Junk-Art, Meeple Circus, Obscurio, Wingspan</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Betrayal at House on the Hill, Cockroach Poker, Cryptid, Deception: Murder in Hong Kong, Jenga, Obscurio</t>
+  </si>
+  <si>
+    <t>Betrayal at House on the Hill + Widows Walk expansion, Deception: Murder in Hong Kong, Jenga, Saboteur</t>
+  </si>
+  <si>
+    <t>Bunny Kingdom, Jenga, Marrakech, Mystic Vale + 1 expansion, Viticulture Essential Edition</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Betrayal at House on the Hill, Betrayal at House on the Hill + Widows Walk expansion, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Between two Castles of Mad King Ludwig, Cockroach Poker, Deception: Murder in Hong Kong, Glux, Marrakech, Viticulture Essential Edition, Wingspan</t>
+  </si>
+  <si>
+    <t>Bunny Kingdom, Meeple Circus, Mission: Red Planet (2nd edition), Secret Hitler</t>
+  </si>
+  <si>
+    <t>Cities and Knights (Catan expansion), Cockroach Poker, Coup + Reformation expansion, Evolution, Mascarade expansion, Mystic Vale + 1 expansion, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Cockroach Poker, Mascarade expansion</t>
+  </si>
+  <si>
+    <t>Betrayal at House on the Hill + Widows Walk expansion, Coup + Reformation expansion, Crokinole, Fog of Love, Mascarade expansion, Secret Hitler, Twilight Imperium</t>
+  </si>
+  <si>
+    <t>Cities and Knights (Catan expansion), Cockroach Poker, Jenga</t>
+  </si>
+  <si>
+    <t>Between two Castles of Mad King Ludwig, Bunny Kingdom, Clank!, Gizmos, Root, Wingspan</t>
+  </si>
+  <si>
+    <t>Champions of Midgard, Cockroach Poker, Mascarade expansion, Mystic Vale + 1 expansion</t>
+  </si>
+  <si>
+    <t>Bunny Kingdom, Junk-Art, Root</t>
+  </si>
+  <si>
+    <t>Betrayal at House on the Hill, Betrayal at House on the Hill + Widows Walk expansion, Between two Castles of Mad King Ludwig, Clank!, Cities and Knights (Catan expansion), Cockroach Poker, Cryptid, Deception: Murder in Hong Kong, Evolution, Game of Life, Glux, Mascarade expansion, Mystic Vale + 1 expansion, Small World Underground, Sub Terra, Wingspan</t>
+  </si>
+  <si>
+    <t>Betrayal at House on the Hill, Betrayal at House on the Hill + Widows Walk expansion, Clank!, Cities and Knights (Catan expansion), Cockroach Poker, Coup + Reformation expansion, Cryptid, Diplomacy, Evolution, Saboteur, Scythe, Secret Hitler, Small World Underground, Sub Terra, Twilight Imperium, Viticulture Essential Edition</t>
+  </si>
+  <si>
+    <t>Betrayal at House on the Hill, Betrayal at House on the Hill + Widows Walk expansion, Mission: Red Planet (2nd edition), Mystic Vale + 1 expansion, Sub Terra</t>
+  </si>
+  <si>
+    <t>Bunny Kingdom, Gizmos, Marrakech, Meeple Circus, Small World Underground, Viticulture Essential Edition</t>
+  </si>
+  <si>
+    <t>Cities and Knights (Catan expansion), Diplomacy, Evolution, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Coup + Reformation expansion, Jenga, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Cities and Knights (Catan expansion), Coup + Reformation expansion, Evolution, Jenga, Saboteur, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Scythe</t>
+  </si>
+  <si>
+    <t>Catacombs, Cockroach Poker, Coup + Reformation expansion, Deception: Murder in Hong Kong, Glux, Mystic Vale + 1 expansion, Obscurio, Root, Saboteur, Wingspan</t>
+  </si>
+  <si>
+    <t>Cryptid, Deception: Murder in Hong Kong, Game of Life, Junk-Art, Mystic Vale + 1 expansion, Small World Underground, Sub Terra, Wingspan</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Cryptid, Deception: Murder in Hong Kong, Root, Secret Hitler</t>
+  </si>
+  <si>
+    <t>Cockroach Poker, Evolution, Mascarade expansion, Obscurio</t>
+  </si>
+  <si>
+    <t>Azul: Stained Glass of Sintra, Betrayal at House on the Hill + Widows Walk expansion, Cities and Knights (Catan expansion), Cockroach Poker, Coup + Reformation expansion, Evolution, Meeple Circus, Secret Hitler, Twilight Imperium, Diplomacy, Fog of Love, Mascarade expansion, Root, Wingspan</t>
+  </si>
+  <si>
+    <t>Games</t>
   </si>
 </sst>
 </file>
@@ -329,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,399 +747,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>21</v>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>37</v>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>41</v>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>46</v>
+      <c r="C24" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>48</v>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>52</v>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>60</v>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>62</v>
+      <c r="C32" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Python/results.xlsx
+++ b/Python/results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>Cockroach Poker</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Jenga</t>
   </si>
   <si>
-    <t>11.99</t>
-  </si>
-  <si>
     <t>Deception: Murder in Hong Kong</t>
   </si>
   <si>
@@ -334,6 +331,12 @@
   </si>
   <si>
     <t>Games</t>
+  </si>
+  <si>
+    <t>Azul:Stained Glass of Sintra, Cryptid, Glux</t>
+  </si>
+  <si>
+    <t>Cockroach Poker, Wingspan, Junk-Art, Fog of Love, Mission: Red Planet (2nd edition)</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,11 +425,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,6 +467,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,7 +755,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -762,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -817,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -850,158 +867,158 @@
         <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
@@ -1012,145 +1029,145 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1161,172 +1178,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
